--- a/ParkByeongHyeon/kakao.xlsx
+++ b/ParkByeongHyeon/kakao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="119">
   <si>
     <t>ProjectName</t>
   </si>
@@ -55,9 +55,6 @@
     <t>khaiii</t>
   </si>
   <si>
-    <t>sample-app-for-android</t>
-  </si>
-  <si>
     <t>n2</t>
   </si>
   <si>
@@ -169,12 +166,12 @@
     <t>4</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -259,49 +256,49 @@
     <t>139</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>1.2k</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
     <t>87</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>1.2k</t>
-  </si>
-  <si>
-    <t>488</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>122</t>
   </si>
   <si>
     <t>38</t>
@@ -731,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -765,19 +762,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -785,22 +782,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -808,19 +805,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -828,22 +825,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -851,19 +848,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -871,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -894,19 +891,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -914,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
         <v>65</v>
@@ -940,7 +940,7 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -949,10 +949,7 @@
         <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -960,19 +957,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -980,22 +980,19 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1006,16 +1003,19 @@
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1026,7 +1026,7 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -1035,10 +1035,7 @@
         <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1049,16 +1046,16 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1069,16 +1066,16 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1086,19 +1083,19 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1106,19 +1103,19 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1129,16 +1126,19 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
         <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1149,19 +1149,16 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
-      </c>
-      <c r="G20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1172,16 +1169,16 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1192,16 +1189,16 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1212,7 +1209,7 @@
         <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>51</v>
@@ -1221,7 +1218,7 @@
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1232,16 +1229,16 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1252,16 +1249,16 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1272,16 +1269,16 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1292,16 +1289,16 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1312,16 +1309,19 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1329,22 +1329,19 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1352,19 +1349,19 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1372,19 +1369,19 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1392,10 +1389,10 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
         <v>74</v>
@@ -1404,7 +1401,7 @@
         <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1412,19 +1409,19 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1435,16 +1432,16 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1452,19 +1449,19 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1472,19 +1469,19 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1492,19 +1489,19 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1512,19 +1509,19 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1532,19 +1529,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E39" t="s">
         <v>100</v>
       </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G39" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1552,42 +1552,19 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/ParkByeongHyeon/kakao.xlsx
+++ b/ParkByeongHyeon/kakao.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>ProjectName</t>
   </si>
@@ -56,48 +59,6 @@
   </si>
   <si>
     <t>mango</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>42</t>
   </si>
   <si>
     <t>['python', 'machine-learning', 'cpp', 'matrix-factorization', 'recommender-system']</t>
@@ -494,13 +455,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,184 +483,208 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>409</v>
+      </c>
+      <c r="G2">
+        <v>525</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>264</v>
+      </c>
+      <c r="G3">
+        <v>495</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>199</v>
+      </c>
+      <c r="G6">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ParkByeongHyeon/kakao.xlsx
+++ b/ParkByeongHyeon/kakao.xlsx
@@ -507,7 +507,7 @@
         <v>409</v>
       </c>
       <c r="G2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -536,7 +536,7 @@
         <v>264</v>
       </c>
       <c r="G3">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>

--- a/ParkByeongHyeon/kakao.xlsx
+++ b/ParkByeongHyeon/kakao.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ProjectName</t>
   </si>
@@ -59,6 +56,48 @@
   </si>
   <si>
     <t>mango</t>
+  </si>
+  <si>
+    <t>409</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>['python', 'machine-learning', 'cpp', 'matrix-factorization', 'recommender-system']</t>
@@ -455,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,208 +522,184 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>409</v>
-      </c>
-      <c r="G2">
-        <v>527</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>264</v>
-      </c>
-      <c r="G3">
-        <v>496</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>86</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>62</v>
-      </c>
-      <c r="G5">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
+      <c r="H7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>199</v>
-      </c>
-      <c r="G6">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>17</v>
-      </c>
-      <c r="G8">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
+      <c r="G8" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
